--- a/OCO Calulator.xlsx
+++ b/OCO Calulator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://qnscloud-my.sharepoint.com/personal/n_littlepage_qns_cloud/Documents/Hex Ventures/Indicators/thinkorswim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1C8B42A-1D6D-4107-A676-D2A8727A5014}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{73BDDA14-EEB2-4D9F-8633-B10A9B7C3D0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CF0BCDE3-70FC-4B1F-8B49-F7F3C4987562}"/>
   <bookViews>
-    <workbookView xWindow="35265" yWindow="3960" windowWidth="21600" windowHeight="12735" xr2:uid="{22D6E306-FF93-4309-8E82-0D00FFAC72CB}"/>
+    <workbookView xWindow="33960" yWindow="3450" windowWidth="21600" windowHeight="12735" xr2:uid="{22D6E306-FF93-4309-8E82-0D00FFAC72CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
     <t>50/50</t>
   </si>
   <si>
-    <t>30/70</t>
+    <t>40/70</t>
   </si>
 </sst>
 </file>
@@ -472,15 +472,15 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>10.11</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="B2" s="8">
-        <f>CEILING(SUM(A2*0.7), 0.05)</f>
-        <v>7.1000000000000005</v>
+        <f>CEILING(SUM(A2*0.6), 0.05)</f>
+        <v>1.5</v>
       </c>
       <c r="C2" s="8">
         <f>CEILING(SUM((A2*0.7) + A2), 0.05)</f>
-        <v>17.2</v>
+        <v>4.2</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>6</v>
@@ -489,11 +489,11 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="8">
         <f>CEILING(SUM(A2*0.6),0.05)</f>
-        <v>6.1000000000000005</v>
+        <v>1.5</v>
       </c>
       <c r="C3" s="8">
         <f>CEILING(SUM((A2*0.6) + A2),0.05)</f>
-        <v>16.2</v>
+        <v>3.95</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>4</v>
@@ -502,18 +502,18 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="8">
         <f>CEILING(SUM(A2*0.5),0.05)</f>
-        <v>5.1000000000000005</v>
+        <v>1.25</v>
       </c>
       <c r="C4" s="8">
         <f>CEILING(SUM((A2*0.5) + A2), 0.05)</f>
-        <v>15.200000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/mUmXCbnIuDRInXt69OFp+OXvQcgiydmQubTkc9Hg57NsYMH39J3eNe+GhjBtS/rSbGMVlAp0hS5CC9VVPsfbw==" saltValue="W2Fk37RxPjFH4o+BbSmVsg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="p6wM0fOzplLTNLpVdRsP3r0eAEwT0M0gszhFb5w5KyeQvUTyUfoT1ZMnVS8cQivTWuKWI20yxdfqhwuBPdNZ9A==" saltValue="Yr6M51sdvVDb2EPq8p2rTA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/OCO Calulator.xlsx
+++ b/OCO Calulator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://qnscloud-my.sharepoint.com/personal/n_littlepage_qns_cloud/Documents/Hex Ventures/Indicators/thinkorswim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{73BDDA14-EEB2-4D9F-8633-B10A9B7C3D0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CF0BCDE3-70FC-4B1F-8B49-F7F3C4987562}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{73BDDA14-EEB2-4D9F-8633-B10A9B7C3D0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{67CDC35E-A45D-44B2-970B-A61BB0253DBA}"/>
   <bookViews>
     <workbookView xWindow="33960" yWindow="3450" windowWidth="21600" windowHeight="12735" xr2:uid="{22D6E306-FF93-4309-8E82-0D00FFAC72CB}"/>
   </bookViews>
@@ -472,15 +472,15 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>2.4500000000000002</v>
+        <v>3.3</v>
       </c>
       <c r="B2" s="8">
         <f>CEILING(SUM(A2*0.6), 0.05)</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="C2" s="8">
         <f>CEILING(SUM((A2*0.7) + A2), 0.05)</f>
-        <v>4.2</v>
+        <v>5.65</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>6</v>
@@ -489,11 +489,11 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="8">
         <f>CEILING(SUM(A2*0.6),0.05)</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="C3" s="8">
         <f>CEILING(SUM((A2*0.6) + A2),0.05)</f>
-        <v>3.95</v>
+        <v>5.3000000000000007</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>4</v>
@@ -502,11 +502,11 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="8">
         <f>CEILING(SUM(A2*0.5),0.05)</f>
-        <v>1.25</v>
+        <v>1.6500000000000001</v>
       </c>
       <c r="C4" s="8">
         <f>CEILING(SUM((A2*0.5) + A2), 0.05)</f>
-        <v>3.7</v>
+        <v>4.95</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>5</v>

--- a/OCO Calulator.xlsx
+++ b/OCO Calulator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://qnscloud-my.sharepoint.com/personal/n_littlepage_qns_cloud/Documents/Hex Ventures/Indicators/thinkorswim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{73BDDA14-EEB2-4D9F-8633-B10A9B7C3D0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{67CDC35E-A45D-44B2-970B-A61BB0253DBA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46187B13-A700-4797-9C8F-5F9A0F143449}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33960" yWindow="3450" windowWidth="21600" windowHeight="12735" xr2:uid="{22D6E306-FF93-4309-8E82-0D00FFAC72CB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Price</t>
   </si>
@@ -48,13 +48,19 @@
     <t>Type</t>
   </si>
   <si>
-    <t>40/60</t>
-  </si>
-  <si>
     <t>50/50</t>
   </si>
   <si>
-    <t>40/70</t>
+    <t>50/70</t>
+  </si>
+  <si>
+    <t>50/60</t>
+  </si>
+  <si>
+    <t>50/80</t>
+  </si>
+  <si>
+    <t>50/90</t>
   </si>
 </sst>
 </file>
@@ -443,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDAECD1-83B5-470D-A990-0B79237C5E4C}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,48 +478,76 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="8">
-        <f>CEILING(SUM(A2*0.6), 0.05)</f>
-        <v>2</v>
+        <f>CEILING(SUM(A2*0.5), 0.05)</f>
+        <v>0.5</v>
       </c>
       <c r="C2" s="8">
-        <f>CEILING(SUM((A2*0.7) + A2), 0.05)</f>
-        <v>5.65</v>
+        <f>CEILING(SUM((A2*0.9) + A2), 0.05)</f>
+        <v>1.9000000000000001</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
       <c r="B3" s="8">
-        <f>CEILING(SUM(A2*0.6),0.05)</f>
-        <v>2</v>
+        <f>CEILING(SUM(A2*0.5), 0.05)</f>
+        <v>0.5</v>
       </c>
       <c r="C3" s="8">
-        <f>CEILING(SUM((A2*0.6) + A2),0.05)</f>
-        <v>5.3000000000000007</v>
+        <f>CEILING(SUM((A2*0.8) + A2), 0.05)</f>
+        <v>1.8</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
       <c r="B4" s="8">
-        <f>CEILING(SUM(A2*0.5),0.05)</f>
-        <v>1.6500000000000001</v>
+        <f>CEILING(SUM(A2*0.5), 0.05)</f>
+        <v>0.5</v>
       </c>
       <c r="C4" s="8">
-        <f>CEILING(SUM((A2*0.5) + A2), 0.05)</f>
-        <v>4.95</v>
+        <f>CEILING(SUM((A2*0.7) + A2), 0.05)</f>
+        <v>1.7000000000000002</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
+        <f>CEILING(SUM(A2*0.5),0.05)</f>
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="8">
+        <f>CEILING(SUM((A2*0.6) + A2),0.05)</f>
+        <v>1.6</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="8">
+        <f>CEILING(SUM(A2*0.5),0.05)</f>
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="8">
+        <f>CEILING(SUM((A2*0.5) + A2), 0.05)</f>
+        <v>1.5</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="p6wM0fOzplLTNLpVdRsP3r0eAEwT0M0gszhFb5w5KyeQvUTyUfoT1ZMnVS8cQivTWuKWI20yxdfqhwuBPdNZ9A==" saltValue="Yr6M51sdvVDb2EPq8p2rTA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="h2CNsW9vgT2Hfn6esAi5TZEU8Ga6zYG9taU9+zYH2RYAEFqTUz99bXVtlWX/fGm1wnqFehrraeP+EdKokHMdag==" saltValue="86zxuoiiTW1ENdfdrk15PA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/OCO Calulator.xlsx
+++ b/OCO Calulator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://qnscloud-my.sharepoint.com/personal/n_littlepage_qns_cloud/Documents/Hex Ventures/Indicators/thinkorswim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46187B13-A700-4797-9C8F-5F9A0F143449}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{46187B13-A700-4797-9C8F-5F9A0F143449}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E915BA9D-0B25-4C4C-A56F-F41E39AD2228}"/>
   <bookViews>
-    <workbookView xWindow="33960" yWindow="3450" windowWidth="21600" windowHeight="12735" xr2:uid="{22D6E306-FF93-4309-8E82-0D00FFAC72CB}"/>
+    <workbookView xWindow="34545" yWindow="3375" windowWidth="21600" windowHeight="12735" xr2:uid="{22D6E306-FF93-4309-8E82-0D00FFAC72CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -452,7 +452,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,15 +478,15 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>1</v>
+        <v>2.13</v>
       </c>
       <c r="B2" s="8">
         <f>CEILING(SUM(A2*0.5), 0.05)</f>
-        <v>0.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C2" s="8">
         <f>CEILING(SUM((A2*0.9) + A2), 0.05)</f>
-        <v>1.9000000000000001</v>
+        <v>4.05</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
@@ -496,11 +496,11 @@
       <c r="A3" s="10"/>
       <c r="B3" s="8">
         <f>CEILING(SUM(A2*0.5), 0.05)</f>
-        <v>0.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C3" s="8">
         <f>CEILING(SUM((A2*0.8) + A2), 0.05)</f>
-        <v>1.8</v>
+        <v>3.85</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>7</v>
@@ -510,11 +510,11 @@
       <c r="A4" s="10"/>
       <c r="B4" s="8">
         <f>CEILING(SUM(A2*0.5), 0.05)</f>
-        <v>0.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C4" s="8">
         <f>CEILING(SUM((A2*0.7) + A2), 0.05)</f>
-        <v>1.7000000000000002</v>
+        <v>3.6500000000000004</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>5</v>
@@ -523,11 +523,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
         <f>CEILING(SUM(A2*0.5),0.05)</f>
-        <v>0.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C5" s="8">
         <f>CEILING(SUM((A2*0.6) + A2),0.05)</f>
-        <v>1.6</v>
+        <v>3.45</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>6</v>
@@ -536,11 +536,11 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <f>CEILING(SUM(A2*0.5),0.05)</f>
-        <v>0.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C6" s="8">
         <f>CEILING(SUM((A2*0.5) + A2), 0.05)</f>
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>4</v>

--- a/OCO Calulator.xlsx
+++ b/OCO Calulator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://qnscloud-my.sharepoint.com/personal/n_littlepage_qns_cloud/Documents/Hex Ventures/Indicators/thinkorswim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{46187B13-A700-4797-9C8F-5F9A0F143449}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E915BA9D-0B25-4C4C-A56F-F41E39AD2228}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30255358-DB66-4EC6-8DAD-658A102BA27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34545" yWindow="3375" windowWidth="21600" windowHeight="12735" xr2:uid="{22D6E306-FF93-4309-8E82-0D00FFAC72CB}"/>
+    <workbookView xWindow="33165" yWindow="2670" windowWidth="21600" windowHeight="12735" xr2:uid="{22D6E306-FF93-4309-8E82-0D00FFAC72CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Price</t>
   </si>
@@ -61,6 +61,21 @@
   </si>
   <si>
     <t>50/90</t>
+  </si>
+  <si>
+    <t>Directional</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Short Strangle</t>
+  </si>
+  <si>
+    <t>30/50</t>
+  </si>
+  <si>
+    <t>Small Account</t>
   </si>
 </sst>
 </file>
@@ -107,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -134,6 +149,9 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDAECD1-83B5-470D-A990-0B79237C5E4C}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -457,12 +475,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
-    <col min="2" max="3" width="9.140625" style="7"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="1" max="1" width="10.7109375" style="6" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -473,81 +492,139 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>2.13</v>
+        <v>25.75</v>
       </c>
       <c r="B2" s="8">
         <f>CEILING(SUM(A2*0.5), 0.05)</f>
-        <v>1.1000000000000001</v>
+        <v>12.9</v>
       </c>
       <c r="C2" s="8">
         <f>CEILING(SUM((A2*0.9) + A2), 0.05)</f>
-        <v>4.05</v>
+        <v>48.95</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="8">
         <f>CEILING(SUM(A2*0.5), 0.05)</f>
-        <v>1.1000000000000001</v>
+        <v>12.9</v>
       </c>
       <c r="C3" s="8">
         <f>CEILING(SUM((A2*0.8) + A2), 0.05)</f>
-        <v>3.85</v>
+        <v>46.35</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="8">
         <f>CEILING(SUM(A2*0.5), 0.05)</f>
-        <v>1.1000000000000001</v>
+        <v>12.9</v>
       </c>
       <c r="C4" s="8">
         <f>CEILING(SUM((A2*0.7) + A2), 0.05)</f>
-        <v>3.6500000000000004</v>
+        <v>43.800000000000004</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
         <f>CEILING(SUM(A2*0.5),0.05)</f>
-        <v>1.1000000000000001</v>
+        <v>12.9</v>
       </c>
       <c r="C5" s="8">
         <f>CEILING(SUM((A2*0.6) + A2),0.05)</f>
-        <v>3.45</v>
+        <v>41.2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <f>CEILING(SUM(A2*0.5),0.05)</f>
-        <v>1.1000000000000001</v>
+        <v>12.9</v>
       </c>
       <c r="C6" s="8">
         <f>CEILING(SUM((A2*0.5) + A2), 0.05)</f>
-        <v>3.2</v>
+        <v>38.650000000000006</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>4</v>
       </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
+        <f>CEILING(SUM(A2*0.8),0.05)</f>
+        <v>20.6</v>
+      </c>
+      <c r="C8" s="7">
+        <f>CEILING(SUM((A2*0.5) + A2), 0.05)</f>
+        <v>38.650000000000006</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="7">
+        <f>CEILING(SUM(A2 - (A2*0.3)), 0.05)</f>
+        <v>18.05</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="7">
+        <f>CEILING(SUM(A2 - (A2*0.5)), 0.05)</f>
+        <v>12.9</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="h2CNsW9vgT2Hfn6esAi5TZEU8Ga6zYG9taU9+zYH2RYAEFqTUz99bXVtlWX/fGm1wnqFehrraeP+EdKokHMdag==" saltValue="86zxuoiiTW1ENdfdrk15PA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sK/gI42XmBdCnkQJacmqEYkb/KmzZpXPIxQikfSXk42ssl0+rqFcbRDypKceZvm9HWNZvnJuupBmn2jNQDvPMQ==" saltValue="E8EwS9T8x0tNePvbcszUyg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/OCO Calulator.xlsx
+++ b/OCO Calulator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://qnscloud-my.sharepoint.com/personal/n_littlepage_qns_cloud/Documents/Hex Ventures/Indicators/thinkorswim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30255358-DB66-4EC6-8DAD-658A102BA27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{30255358-DB66-4EC6-8DAD-658A102BA27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E792E14F-6753-408A-B038-E494B93A5466}"/>
   <bookViews>
-    <workbookView xWindow="33165" yWindow="2670" windowWidth="21600" windowHeight="12735" xr2:uid="{22D6E306-FF93-4309-8E82-0D00FFAC72CB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{22D6E306-FF93-4309-8E82-0D00FFAC72CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Price</t>
   </si>
@@ -51,31 +51,37 @@
     <t>50/50</t>
   </si>
   <si>
-    <t>50/70</t>
-  </si>
-  <si>
-    <t>50/60</t>
-  </si>
-  <si>
-    <t>50/80</t>
-  </si>
-  <si>
-    <t>50/90</t>
-  </si>
-  <si>
-    <t>Directional</t>
-  </si>
-  <si>
-    <t>Ratio</t>
-  </si>
-  <si>
     <t>Short Strangle</t>
   </si>
   <si>
-    <t>30/50</t>
-  </si>
-  <si>
     <t>Small Account</t>
+  </si>
+  <si>
+    <t>P/L Ratio</t>
+  </si>
+  <si>
+    <t>90/50</t>
+  </si>
+  <si>
+    <t>80/50</t>
+  </si>
+  <si>
+    <t>70/50</t>
+  </si>
+  <si>
+    <t>60/50</t>
+  </si>
+  <si>
+    <t>50/30</t>
+  </si>
+  <si>
+    <t>Short Directional</t>
+  </si>
+  <si>
+    <t>Long Directional</t>
+  </si>
+  <si>
+    <t>Play</t>
   </si>
 </sst>
 </file>
@@ -467,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDAECD1-83B5-470D-A990-0B79237C5E4C}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,10 +484,11 @@
     <col min="1" max="1" width="10.7109375" style="6" customWidth="1"/>
     <col min="2" max="3" width="10.7109375" style="7" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -492,105 +499,108 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>25.75</v>
+        <v>2.66</v>
       </c>
       <c r="B2" s="8">
         <f>CEILING(SUM(A2*0.5), 0.05)</f>
-        <v>12.9</v>
+        <v>1.35</v>
       </c>
       <c r="C2" s="8">
         <f>CEILING(SUM((A2*0.9) + A2), 0.05)</f>
-        <v>48.95</v>
+        <v>5.1000000000000005</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="8">
         <f>CEILING(SUM(A2*0.5), 0.05)</f>
-        <v>12.9</v>
+        <v>1.35</v>
       </c>
       <c r="C3" s="8">
         <f>CEILING(SUM((A2*0.8) + A2), 0.05)</f>
-        <v>46.35</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="8">
         <f>CEILING(SUM(A2*0.5), 0.05)</f>
-        <v>12.9</v>
+        <v>1.35</v>
       </c>
       <c r="C4" s="8">
         <f>CEILING(SUM((A2*0.7) + A2), 0.05)</f>
-        <v>43.800000000000004</v>
+        <v>4.55</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
         <f>CEILING(SUM(A2*0.5),0.05)</f>
-        <v>12.9</v>
+        <v>1.35</v>
       </c>
       <c r="C5" s="8">
         <f>CEILING(SUM((A2*0.6) + A2),0.05)</f>
-        <v>41.2</v>
+        <v>4.3</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <f>CEILING(SUM(A2*0.5),0.05)</f>
-        <v>12.9</v>
+        <v>1.35</v>
       </c>
       <c r="C6" s="8">
         <f>CEILING(SUM((A2*0.5) + A2), 0.05)</f>
-        <v>38.650000000000006</v>
+        <v>4</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
-        <f>CEILING(SUM(A2*0.8),0.05)</f>
-        <v>20.6</v>
+        <f>CEILING(SUM((A2*0.3) + A2 ),0.05)</f>
+        <v>3.5</v>
       </c>
       <c r="C8" s="7">
-        <f>CEILING(SUM((A2*0.5) + A2), 0.05)</f>
-        <v>38.650000000000006</v>
+        <f>CEILING(SUM(A2 - ( A2*0.5)), 0.05)</f>
+        <v>1.35</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>12</v>
@@ -598,33 +608,36 @@
       <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="7">
         <f>CEILING(SUM(A2 - (A2*0.3)), 0.05)</f>
-        <v>18.05</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="D10" s="11">
         <v>0.3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="7">
         <f>CEILING(SUM(A2 - (A2*0.5)), 0.05)</f>
-        <v>12.9</v>
+        <v>1.35</v>
       </c>
       <c r="D11" s="11">
         <v>0.5</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="sK/gI42XmBdCnkQJacmqEYkb/KmzZpXPIxQikfSXk42ssl0+rqFcbRDypKceZvm9HWNZvnJuupBmn2jNQDvPMQ==" saltValue="E8EwS9T8x0tNePvbcszUyg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EJiSs8EyEiP5ifs0c70m3lRcFNZRacVfiYcJHETtxN6i8KkK/UHbjZP2YogPQE6N89fmoiR3LJ+2ujEvZnnX8w==" saltValue="Y1LawI0ujcEIJ8c43pa5dg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
